--- a/TEMP/EMPRESA_027/O R D E N  D E   C O M P R A .xlsx
+++ b/TEMP/EMPRESA_027/O R D E N  D E   C O M P R A .xlsx
@@ -42,7 +42,7 @@
         <sz val="7"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">16:26
+      <t xml:space="preserve">14:56
 </t>
     </r>
     <r>
@@ -67,7 +67,7 @@
         <sz val="7"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">16-09-2024
+      <t xml:space="preserve">24-09-2024
 </t>
     </r>
     <r>
@@ -117,70 +117,70 @@
     <t>Proveedor:</t>
   </si>
   <si>
+    <t>AQUACOBRE CITA LTDA</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>FAMILIA</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>MARCAS</t>
+  </si>
+  <si>
+    <t>CANT</t>
+  </si>
+  <si>
+    <t>T0%</t>
+  </si>
+  <si>
+    <t>T5%</t>
+  </si>
+  <si>
+    <t>T15%</t>
+  </si>
+  <si>
+    <t>IVA 5%</t>
+  </si>
+  <si>
+    <t>IVA 15%</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>TOTAL GLOBAL</t>
+  </si>
+  <si>
+    <t>PRECIO REFERENCIAL</t>
+  </si>
+  <si>
+    <t>DIFERENCIA</t>
+  </si>
+  <si>
+    <t>HIERRO - VARILLAS</t>
+  </si>
+  <si>
+    <t>FE.31.004</t>
+  </si>
+  <si>
+    <t>VARILLA 5/8 X 1.8 m CON CONECTOR DE COOPERWELD</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>ABSCOTEST CIA LTDA</t>
   </si>
   <si>
-    <t>ITEM</t>
-  </si>
-  <si>
-    <t>FAMILIA</t>
-  </si>
-  <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
-    <t>MARCAS</t>
-  </si>
-  <si>
-    <t>CANT</t>
-  </si>
-  <si>
-    <t>T0%</t>
-  </si>
-  <si>
-    <t>T5%</t>
-  </si>
-  <si>
-    <t>T15%</t>
-  </si>
-  <si>
-    <t>IVA 5%</t>
-  </si>
-  <si>
-    <t>IVA 15%</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>TOTAL GLOBAL</t>
-  </si>
-  <si>
-    <t>PRECIO REFERENCIAL</t>
-  </si>
-  <si>
-    <t>DIFERENCIA</t>
-  </si>
-  <si>
-    <t>HIERRO - VARILLAS</t>
-  </si>
-  <si>
     <t>FE.31.003</t>
   </si>
   <si>
     <t>MALLA ARMEX 10 X 10 X 5MM R-196</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>AQUACOBRE CITA LTDA</t>
-  </si>
-  <si>
-    <t>FE.31.004</t>
-  </si>
-  <si>
-    <t>VARILLA 5/8 X 1.8 m CON CONECTOR DE COOPERWELD</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
               <sz val="7"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">16:26
+            <t xml:space="preserve">14:56
 </t>
           </r>
           <r>
@@ -734,7 +734,7 @@
               <sz val="7"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">16-09-2024
+            <t xml:space="preserve">24-09-2024
 </t>
           </r>
           <r>
@@ -795,7 +795,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5">
-        <v>128.64</v>
+        <v>9.0</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -873,7 +873,7 @@
         <v>27</v>
       </c>
       <c r="F8">
-        <v>3.2</v>
+        <v>3.0</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -881,11 +881,11 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8">
-        <v>40.2</v>
+        <v>3.0</v>
       </c>
       <c r="M8"/>
       <c r="N8">
-        <v>128.64</v>
+        <v>9.0</v>
       </c>
       <c r="O8"/>
       <c r="P8"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5">
-        <v>9.0</v>
+        <v>128.64</v>
       </c>
       <c r="D12" s="5"/>
     </row>
@@ -997,7 +997,7 @@
         <v>27</v>
       </c>
       <c r="F15">
-        <v>3.0</v>
+        <v>3.2</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -1005,11 +1005,11 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15">
-        <v>3.0</v>
+        <v>40.2</v>
       </c>
       <c r="M15"/>
       <c r="N15">
-        <v>9.0</v>
+        <v>128.64</v>
       </c>
       <c r="O15"/>
       <c r="P15"/>
